--- a/stateButton/buttons.xlsx
+++ b/stateButton/buttons.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崇晃\Documents\SourceTree\webapplication\stateButton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taka\Documents\GitHub\webapplication\stateButton\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18288" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>在室</a:t>
           </a:r>
         </a:p>
@@ -191,7 +194,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>授業</a:t>
           </a:r>
         </a:p>
@@ -246,7 +252,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>一時外出</a:t>
           </a:r>
         </a:p>
@@ -301,7 +310,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>不在</a:t>
           </a:r>
         </a:p>
@@ -356,7 +368,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>在室</a:t>
           </a:r>
         </a:p>
@@ -411,7 +426,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>授業</a:t>
           </a:r>
         </a:p>
@@ -466,7 +484,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>一時外出</a:t>
           </a:r>
         </a:p>
@@ -521,7 +542,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>不在</a:t>
           </a:r>
         </a:p>
@@ -798,10 +822,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,7 +839,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -828,7 +852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stateButton/buttons.xlsx
+++ b/stateButton/buttons.xlsx
@@ -213,8 +213,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>625875</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16875</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>89100</xdr:rowOff>
     </xdr:to>
@@ -225,8 +225,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190875" y="1200150"/>
-          <a:ext cx="864000" cy="432000"/>
+          <a:off x="2886075" y="1173480"/>
+          <a:ext cx="788400" cy="424380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -445,8 +445,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>644925</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35925</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127200</xdr:rowOff>
     </xdr:to>
@@ -457,8 +457,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="1752600"/>
-          <a:ext cx="864000" cy="432000"/>
+          <a:off x="2905125" y="1714500"/>
+          <a:ext cx="788400" cy="424380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,7 +822,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
